--- a/src/analysis_examples/circadb/results_lomb/cosinor_10497920_ankrd50_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10497920_ankrd50_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2632681048368052, 0.40405187458220404]</t>
+          <t>[0.2645570760995303, 0.40276290331947895]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.489782824355302e-09</v>
+        <v>1.802394233862969e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.489782824355302e-09</v>
+        <v>1.802394233862969e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.069210712933463</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2956318050840796, -0.8427896207828471]</t>
+          <t>[-1.2830528555201557, -0.855368570346771]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.658518738485327e-09</v>
+        <v>9.738281292470674e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>2.658518738485327e-09</v>
+        <v>9.738281292470674e-10</v>
       </c>
       <c r="S2" t="n">
         <v>0.4615322991489971</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.42388703808002903, 0.4991775602179651]</t>
+          <t>[0.42391133190588604, 0.4991532663921081]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.133433433433549</v>
       </c>
       <c r="X2" t="n">
-        <v>3.258118118118207</v>
+        <v>3.30674674674684</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.00874874874889</v>
+        <v>4.960120120120257</v>
       </c>
     </row>
   </sheetData>
